--- a/Lectures/Lecture 12/ShortestRoute-1.xlsx
+++ b/Lectures/Lecture 12/ShortestRoute-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianaoc/Documents/Courses/STOR 305/Fall 2019/Excel spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ECCFCC-9E49-8043-B47A-EC5BA30E4020}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0CC808-5961-4038-BDBC-A43095C9E604}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="660" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{28734B32-4A20-9F4F-A28A-B268A320F889}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" activeTab="2" xr2:uid="{28734B32-4A20-9F4F-A28A-B268A320F889}"/>
   </bookViews>
   <sheets>
     <sheet name="One-to-All-Directed" sheetId="1" r:id="rId1"/>
@@ -142,10 +142,19 @@
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -248,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -853,10 +862,10 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
@@ -865,23 +874,23 @@
     <col min="10" max="10" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -901,7 +910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -924,7 +933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -956,7 +965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>0</v>
       </c>
@@ -989,7 +998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>0</v>
       </c>
@@ -1022,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>0</v>
       </c>
@@ -1055,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>3</v>
       </c>
@@ -1088,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>1</v>
       </c>
@@ -1121,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>1</v>
       </c>
@@ -1154,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>0</v>
       </c>
@@ -1187,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>1</v>
       </c>
@@ -1207,7 +1216,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>0</v>
       </c>
@@ -1227,7 +1236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <v>0</v>
       </c>
@@ -1247,7 +1256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E18" s="8" t="s">
         <v>11</v>
       </c>
@@ -1265,11 +1274,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E731B036-55AF-3643-80DA-0D034E5A5735}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
@@ -1278,23 +1287,23 @@
     <col min="10" max="10" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1336,7 +1345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="13" customHeight="1">
+    <row r="6" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
@@ -1383,7 +1392,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -1430,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
@@ -1477,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -1524,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -1571,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
@@ -1618,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
         <v>10</v>
       </c>
@@ -1665,10 +1674,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="31"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,7 +1703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
         <v>4</v>
       </c>
@@ -1720,7 +1729,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>5</v>
       </c>
@@ -1746,7 +1755,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>6</v>
       </c>
@@ -1772,7 +1781,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>7</v>
       </c>
@@ -1798,7 +1807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>8</v>
       </c>
@@ -1824,7 +1833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>9</v>
       </c>
@@ -1850,7 +1859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
         <v>10</v>
       </c>
@@ -1876,7 +1885,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -1902,7 +1911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
         <v>4</v>
       </c>
@@ -1928,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>5</v>
       </c>
@@ -1954,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>6</v>
       </c>
@@ -1980,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>7</v>
       </c>
@@ -2006,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>8</v>
       </c>
@@ -2032,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>9</v>
       </c>
@@ -2058,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="24" t="s">
         <v>10</v>
       </c>
@@ -2084,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2102,11 +2111,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23879AE4-A98A-EA4E-A9A8-103A118E4A65}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
@@ -2114,23 +2123,23 @@
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -2150,7 +2159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>0</v>
       </c>
@@ -2173,7 +2182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -2205,7 +2214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>0</v>
       </c>
@@ -2238,7 +2247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>0</v>
       </c>
@@ -2271,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>0</v>
       </c>
@@ -2304,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>1</v>
       </c>
@@ -2337,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>0</v>
       </c>
@@ -2370,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>0</v>
       </c>
@@ -2403,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>0</v>
       </c>
@@ -2436,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>1</v>
       </c>
@@ -2456,7 +2465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>0</v>
       </c>
@@ -2476,7 +2485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <v>0</v>
       </c>
@@ -2496,7 +2505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E18" s="8" t="s">
         <v>11</v>
       </c>
@@ -2514,11 +2523,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D822CA1-9C48-6C44-9EAC-2C2D2E6F3270}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
@@ -2527,23 +2536,23 @@
     <col min="10" max="10" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -2585,7 +2594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="13" customHeight="1">
+    <row r="6" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
@@ -2632,7 +2641,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -2679,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
@@ -2726,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -2773,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -2820,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
@@ -2867,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
         <v>10</v>
       </c>
@@ -2914,10 +2923,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="31"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2943,7 +2952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
         <v>4</v>
       </c>
@@ -2969,7 +2978,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>5</v>
       </c>
@@ -2995,7 +3004,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>6</v>
       </c>
@@ -3021,7 +3030,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>7</v>
       </c>
@@ -3047,7 +3056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>8</v>
       </c>
@@ -3073,7 +3082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>9</v>
       </c>
@@ -3099,7 +3108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
         <v>10</v>
       </c>
@@ -3125,7 +3134,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -3151,7 +3160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
         <v>4</v>
       </c>
@@ -3177,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>5</v>
       </c>
@@ -3203,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>6</v>
       </c>
@@ -3229,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>7</v>
       </c>
@@ -3255,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>8</v>
       </c>
@@ -3281,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>9</v>
       </c>
@@ -3307,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="24" t="s">
         <v>10</v>
       </c>
@@ -3333,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>22</v>
       </c>
